--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl12-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl12-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ccr10</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,60 +540,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H2">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I2">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J2">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.5706193333333334</v>
+        <v>0.1452775</v>
       </c>
       <c r="N2">
-        <v>1.711858</v>
+        <v>0.290555</v>
       </c>
       <c r="O2">
-        <v>0.2443278446591134</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.3265937887468804</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.367303099912</v>
+        <v>0.03488703570166667</v>
       </c>
       <c r="R2">
-        <v>3.305727899208</v>
+        <v>0.20932221421</v>
       </c>
       <c r="S2">
-        <v>0.002547971972270224</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="T2">
-        <v>0.00340832939048324</v>
+        <v>0.002203844280310985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,60 +602,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.6436919999999999</v>
+        <v>0.643692</v>
       </c>
       <c r="H3">
         <v>1.931076</v>
       </c>
       <c r="I3">
-        <v>0.01042849608821769</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J3">
-        <v>0.01043598962356505</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>1.7648465</v>
+        <v>0.1452775</v>
       </c>
       <c r="N3">
-        <v>3.529693</v>
+        <v>0.290555</v>
       </c>
       <c r="O3">
-        <v>0.7556721553408867</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.6734062112531195</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.136017573278</v>
+        <v>0.09351396453000001</v>
       </c>
       <c r="R3">
-        <v>6.816105439667999</v>
+        <v>0.5610837871800001</v>
       </c>
       <c r="S3">
-        <v>0.00788052411594747</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="T3">
-        <v>0.007027660233081809</v>
+        <v>0.005907358183739276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,356 +664,170 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.62426633333333</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H4">
-        <v>79.872799</v>
+        <v>181.983001</v>
       </c>
       <c r="I4">
-        <v>0.4313414759059189</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J4">
-        <v>0.4316514220927074</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.5706193333333334</v>
+        <v>0.1452775</v>
       </c>
       <c r="N4">
-        <v>1.711858</v>
+        <v>0.290555</v>
       </c>
       <c r="O4">
-        <v>0.2443278446591134</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.3265937887468804</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>15.19232110561578</v>
+        <v>8.812678475925834</v>
       </c>
       <c r="R4">
-        <v>136.730889950542</v>
+        <v>52.876070855555</v>
       </c>
       <c r="S4">
-        <v>0.105388733120174</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="T4">
-        <v>0.1409746733592362</v>
+        <v>0.5567045368793268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>26.62426633333333</v>
+        <v>1.6570225</v>
       </c>
       <c r="H5">
-        <v>79.872799</v>
+        <v>3.314045</v>
       </c>
       <c r="I5">
-        <v>0.4313414759059189</v>
+        <v>0.0151303063043872</v>
       </c>
       <c r="J5">
-        <v>0.4316514220927074</v>
+        <v>0.01013800122420362</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.7648465</v>
+        <v>0.1452775</v>
       </c>
       <c r="N5">
-        <v>3.529693</v>
+        <v>0.290555</v>
       </c>
       <c r="O5">
-        <v>0.7556721553408867</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.6734062112531195</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>46.98774325345117</v>
+        <v>0.24072808624375</v>
       </c>
       <c r="R5">
-        <v>281.926459520707</v>
+        <v>0.9629123449750001</v>
       </c>
       <c r="S5">
-        <v>0.3259527427857449</v>
+        <v>0.0151303063043872</v>
       </c>
       <c r="T5">
-        <v>0.2906767487334712</v>
+        <v>0.01013800122420362</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H6">
+        <v>138.944788</v>
+      </c>
+      <c r="I6">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J6">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.5</v>
       </c>
-      <c r="G6">
-        <v>0.132963</v>
-      </c>
-      <c r="H6">
-        <v>0.265926</v>
-      </c>
-      <c r="I6">
-        <v>0.002154142237867939</v>
-      </c>
-      <c r="J6">
-        <v>0.001437126750390021</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.5706193333333334</v>
+        <v>0.1452775</v>
       </c>
       <c r="N6">
-        <v>1.711858</v>
+        <v>0.290555</v>
       </c>
       <c r="O6">
-        <v>0.2443278446591134</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.3265937887468804</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.07587125841800001</v>
+        <v>6.728517146223334</v>
       </c>
       <c r="R6">
-        <v>0.455227550508</v>
+        <v>40.37110287734001</v>
       </c>
       <c r="S6">
-        <v>0.0005263169300674326</v>
+        <v>0.4229025660661706</v>
       </c>
       <c r="T6">
-        <v>0.0004693566703193693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.132963</v>
-      </c>
-      <c r="H7">
-        <v>0.265926</v>
-      </c>
-      <c r="I7">
-        <v>0.002154142237867939</v>
-      </c>
-      <c r="J7">
-        <v>0.001437126750390021</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.7648465</v>
-      </c>
-      <c r="N7">
-        <v>3.529693</v>
-      </c>
-      <c r="O7">
-        <v>0.7556721553408867</v>
-      </c>
-      <c r="P7">
-        <v>0.6734062112531195</v>
-      </c>
-      <c r="Q7">
-        <v>0.2346592851795</v>
-      </c>
-      <c r="R7">
-        <v>0.938637140718</v>
-      </c>
-      <c r="S7">
-        <v>0.001627825307800506</v>
-      </c>
-      <c r="T7">
-        <v>0.0009677700800706516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>34.323415</v>
-      </c>
-      <c r="H8">
-        <v>102.970245</v>
-      </c>
-      <c r="I8">
-        <v>0.5560758857679955</v>
-      </c>
-      <c r="J8">
-        <v>0.5564754615333375</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.5706193333333334</v>
-      </c>
-      <c r="N8">
-        <v>1.711858</v>
-      </c>
-      <c r="O8">
-        <v>0.2443278446591134</v>
-      </c>
-      <c r="P8">
-        <v>0.3265937887468804</v>
-      </c>
-      <c r="Q8">
-        <v>19.58560418502334</v>
-      </c>
-      <c r="R8">
-        <v>176.27043766521</v>
-      </c>
-      <c r="S8">
-        <v>0.1358648226366017</v>
-      </c>
-      <c r="T8">
-        <v>0.1817414293268416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>34.323415</v>
-      </c>
-      <c r="H9">
-        <v>102.970245</v>
-      </c>
-      <c r="I9">
-        <v>0.5560758857679955</v>
-      </c>
-      <c r="J9">
-        <v>0.5564754615333375</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.7648465</v>
-      </c>
-      <c r="N9">
-        <v>3.529693</v>
-      </c>
-      <c r="O9">
-        <v>0.7556721553408867</v>
-      </c>
-      <c r="P9">
-        <v>0.6734062112531195</v>
-      </c>
-      <c r="Q9">
-        <v>60.5755588307975</v>
-      </c>
-      <c r="R9">
-        <v>363.453352984785</v>
-      </c>
-      <c r="S9">
-        <v>0.4202110631313939</v>
-      </c>
-      <c r="T9">
-        <v>0.3747340322064958</v>
+        <v>0.4250462594324195</v>
       </c>
     </row>
   </sheetData>
